--- a/Client/Assets/11. GameData/Item.xlsx
+++ b/Client/Assets/11. GameData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB1F74B-487B-4DA1-8977-ED3DC401C056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96339F63-6F9E-49CF-A2A9-FD910534C1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23895" yWindow="1800" windowWidth="22680" windowHeight="11295" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_List" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,7 @@
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Money = 1
+Box = 5
 Skin = 10
 Accessory_Head = 21 (머리 장식)
 Accessory_Face = 22 (얼굴 장식)
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +276,22 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic_Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High_Box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,6 +728,7 @@
   </threadedComment>
   <threadedComment ref="D1" dT="2024-09-25T11:22:22.80" personId="{4CC88241-AD13-474B-A84B-A380A011416D}" id="{8CFB0DCD-8399-4F5B-97F1-693CA83F2A21}">
     <text>Money = 1
+Box = 5
 Skin = 10
 Accessory_Head = 21 (머리 장식)
 Accessory_Face = 22 (얼굴 장식)
@@ -726,24 +744,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -789,7 +807,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -814,61 +832,65 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
+        <v>100011</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G4" s="4">
+        <v>73050</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>100012</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G5" s="4">
+        <v>73050</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>201001</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G4" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>201002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G5" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>201003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -883,15 +905,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>201004</v>
+        <v>201002</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -906,15 +928,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>201005</v>
+        <v>201003</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -929,15 +951,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>201006</v>
+        <v>201004</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -952,15 +974,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>201007</v>
+        <v>201005</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -975,15 +997,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>201008</v>
+        <v>201006</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -998,15 +1020,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>201009</v>
+        <v>201007</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1021,15 +1043,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>201010</v>
+        <v>201008</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1044,64 +1066,64 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
+        <v>201009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G14" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>201010</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G15" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>313001</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>21</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G14" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>322001</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G15" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>333001</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1113,21 +1135,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>332001</v>
+        <v>322001</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4">
         <v>45292</v>
@@ -1136,21 +1158,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>332002</v>
+        <v>333001</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4">
         <v>45292</v>
@@ -1159,15 +1181,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>332003</v>
+        <v>332001</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>23</v>
@@ -1182,21 +1204,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>331001</v>
+        <v>332002</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4">
         <v>45292</v>
@@ -1205,21 +1227,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>331002</v>
+        <v>332003</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4">
         <v>45292</v>
@@ -1228,15 +1250,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>331003</v>
+        <v>331001</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>23</v>
@@ -1248,6 +1270,52 @@
         <v>45292</v>
       </c>
       <c r="G22" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>331002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G23" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>331003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G24" s="4">
         <v>73050</v>
       </c>
     </row>
@@ -1260,6 +1328,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -1417,15 +1494,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1433,6 +1501,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1446,14 +1522,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Client/Assets/11. GameData/Item.xlsx
+++ b/Client/Assets/11. GameData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96339F63-6F9E-49CF-A2A9-FD910534C1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCD591-1777-4C7B-BD1B-9ECBC35E1BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="14664" windowHeight="11820" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_List" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,19 +279,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic_Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High_Box</t>
+    <t>마일리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money_mileage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥냥가챠 뽑기권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울트라 냥냥가챠 뽑기권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ticket_Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ticket_Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,24 +752,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -807,7 +815,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -821,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
         <v>45292</v>
@@ -832,18 +840,18 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>100011</v>
+        <v>100003</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -857,21 +865,21 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>100012</v>
+        <v>100004</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
         <v>45292</v>
@@ -882,38 +890,40 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6">
+        <v>100005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G6" s="4">
+        <v>73050</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>201001</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G6" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>201002</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -928,15 +938,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>201003</v>
+        <v>201002</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -951,15 +961,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>201004</v>
+        <v>201003</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -974,15 +984,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>201005</v>
+        <v>201004</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -997,15 +1007,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>201006</v>
+        <v>201005</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1020,15 +1030,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>201007</v>
+        <v>201006</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1043,15 +1053,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>201008</v>
+        <v>201007</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1066,15 +1076,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>201009</v>
+        <v>201008</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1089,15 +1099,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>201010</v>
+        <v>201009</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1112,90 +1122,90 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16">
+        <v>201010</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G16" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>313001</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>21</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="F16" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G16" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="F17" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G17" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>322001</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>22</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G17" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G18" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>333001</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>19</v>
-      </c>
-      <c r="D18">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G18" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>332001</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="4">
         <v>45292</v>
@@ -1204,15 +1214,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>332002</v>
+        <v>332001</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>23</v>
@@ -1227,15 +1237,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>332003</v>
+        <v>332002</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>23</v>
@@ -1250,21 +1260,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>331001</v>
+        <v>332003</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>23</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
         <v>45292</v>
@@ -1273,15 +1283,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>331002</v>
+        <v>331001</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>23</v>
@@ -1296,15 +1306,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>331003</v>
+        <v>331002</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1316,6 +1326,29 @@
         <v>45292</v>
       </c>
       <c r="G24" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>331003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G25" s="4">
         <v>73050</v>
       </c>
     </row>
@@ -1337,6 +1370,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -1494,12 +1533,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
@@ -1509,6 +1542,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1524,20 +1573,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Client/Assets/11. GameData/Item.xlsx
+++ b/Client/Assets/11. GameData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCD591-1777-4C7B-BD1B-9ECBC35E1BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76446F19-795B-4410-900E-AD8314415682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14664" windowHeight="11820" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="17880" windowHeight="15370" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_List" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,204 @@
   </si>
   <si>
     <t>Ticket_Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Basic1</t>
+  </si>
+  <si>
+    <t>기본 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Basic2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화난 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Angry1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화난 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Angry2</t>
+  </si>
+  <si>
+    <t>행복 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Happy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Happy2</t>
+  </si>
+  <si>
+    <t>슬픈 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Sad1</t>
+  </si>
+  <si>
+    <t>슬픈 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Sad2</t>
+  </si>
+  <si>
+    <t>슬픈 표정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Sad3</t>
+  </si>
+  <si>
+    <t>웃는 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Smile1</t>
+  </si>
+  <si>
+    <t>웃는 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Smile2</t>
+  </si>
+  <si>
+    <t>웃는 표정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Smile3</t>
+  </si>
+  <si>
+    <t>당황 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Panic1</t>
+  </si>
+  <si>
+    <t>당황 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Panic2</t>
+  </si>
+  <si>
+    <t>시큰둥 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Indiff1</t>
+  </si>
+  <si>
+    <t>시큰둥 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Indiff2</t>
+  </si>
+  <si>
+    <t>시큰둥 표정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Indiff3</t>
+  </si>
+  <si>
+    <t>놀리는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Banter</t>
+  </si>
+  <si>
+    <t>죽는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Die</t>
+  </si>
+  <si>
+    <t>무 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Express</t>
+  </si>
+  <si>
+    <t>배고픈 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Hungry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑에 빠진 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Love</t>
+  </si>
+  <si>
+    <t>열정가득 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Passion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비웃는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Sneer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀란 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Surprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각하는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Think</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윙크하는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Wink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,24 +950,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -815,7 +1013,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -840,7 +1038,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>100003</v>
       </c>
@@ -865,7 +1063,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>100004</v>
       </c>
@@ -890,7 +1088,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>100005</v>
       </c>
@@ -915,7 +1113,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>201001</v>
       </c>
@@ -938,7 +1136,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>201002</v>
       </c>
@@ -961,7 +1159,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>201003</v>
       </c>
@@ -984,7 +1182,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>201004</v>
       </c>
@@ -1007,7 +1205,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>201005</v>
       </c>
@@ -1030,7 +1228,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>201006</v>
       </c>
@@ -1053,7 +1251,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>201007</v>
       </c>
@@ -1076,7 +1274,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>201008</v>
       </c>
@@ -1099,7 +1297,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>201009</v>
       </c>
@@ -1122,7 +1320,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>201010</v>
       </c>
@@ -1145,7 +1343,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>313001</v>
       </c>
@@ -1168,7 +1366,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>322001</v>
       </c>
@@ -1191,7 +1389,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>333001</v>
       </c>
@@ -1214,7 +1412,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>332001</v>
       </c>
@@ -1237,7 +1435,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>332002</v>
       </c>
@@ -1260,7 +1458,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>332003</v>
       </c>
@@ -1283,7 +1481,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>331001</v>
       </c>
@@ -1306,7 +1504,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>331002</v>
       </c>
@@ -1329,7 +1527,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>331003</v>
       </c>
@@ -1349,6 +1547,627 @@
         <v>45292</v>
       </c>
       <c r="G25" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>341001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G26" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>341002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G27" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>341003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G28" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>341004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G29" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>341005</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G30" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>341006</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G31" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>341007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G32" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>341008</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G33" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>341009</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G34" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>341010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G35" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>341011</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G36" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>341012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G37" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>341013</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G38" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>341014</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G39" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>341015</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G40" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>341016</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G41" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>341017</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G42" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>341018</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G43" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>341019</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G44" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>341020</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G45" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>341021</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G46" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>341022</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G47" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>341023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G48" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>341024</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G49" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>341025</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G50" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>341026</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51">
+        <v>24</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G51" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>341027</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52">
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G52" s="4">
         <v>73050</v>
       </c>
     </row>
@@ -1361,21 +2180,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -1533,10 +2337,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1558,19 +2387,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Client/Assets/11. GameData/Item.xlsx
+++ b/Client/Assets/11. GameData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76446F19-795B-4410-900E-AD8314415682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF9F913-6D36-43D3-9561-9268B4B546B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="17880" windowHeight="15370" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="8895" yWindow="1740" windowWidth="17700" windowHeight="13110" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_List" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,9 @@
 Skin = 10
 Accessory_Head = 21 (머리 장식)
 Accessory_Face = 22 (얼굴 장식)
-Accessory_Back = 23 (등 장식)</t>
+Accessory_Back = 23 (등 장식)
+답글:
+    Ch_Emo = 24 (표정)</t>
       </text>
     </comment>
     <comment ref="E1" authorId="2" shapeId="0" xr:uid="{4ED52798-B22D-43C9-8621-6A17DCBD5E06}">
@@ -87,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,6 +500,14 @@
   </si>
   <si>
     <t>Ch_Emo_Wink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face_Sunglass_Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫핫 썬글라스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,6 +611,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="경천 강" id="{4CC88241-AD13-474B-A84B-A380A011416D}" userId="9a4f2fb646cdd437" providerId="Windows Live"/>
+  <person displayName="창민 이" id="{84A5A70C-4692-4676-8A0A-E197E818F58B}" userId="fda0e400ac064334" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -940,6 +951,9 @@
 Accessory_Face = 22 (얼굴 장식)
 Accessory_Back = 23 (등 장식)</text>
   </threadedComment>
+  <threadedComment ref="D1" dT="2024-12-11T06:51:40.62" personId="{84A5A70C-4692-4676-8A0A-E197E818F58B}" id="{9D6155EC-0806-45E7-A1B4-9CDA24E69300}" parentId="{8CFB0DCD-8399-4F5B-97F1-693CA83F2A21}">
+    <text>Ch_Emo = 24 (표정)</text>
+  </threadedComment>
   <threadedComment ref="E1" dT="2024-09-25T11:40:49.07" personId="{4CC88241-AD13-474B-A84B-A380A011416D}" id="{4ED52798-B22D-43C9-8621-6A17DCBD5E06}">
     <text>Normal = 1
 Rare = 2
@@ -950,24 +964,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -1013,7 +1027,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -1038,7 +1052,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100003</v>
       </c>
@@ -1063,7 +1077,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100004</v>
       </c>
@@ -1088,7 +1102,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100005</v>
       </c>
@@ -1113,7 +1127,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>201001</v>
       </c>
@@ -1136,7 +1150,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>201002</v>
       </c>
@@ -1159,7 +1173,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>201003</v>
       </c>
@@ -1182,7 +1196,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>201004</v>
       </c>
@@ -1205,7 +1219,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>201005</v>
       </c>
@@ -1228,7 +1242,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>201006</v>
       </c>
@@ -1251,7 +1265,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>201007</v>
       </c>
@@ -1274,7 +1288,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>201008</v>
       </c>
@@ -1297,7 +1311,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>201009</v>
       </c>
@@ -1320,7 +1334,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>201010</v>
       </c>
@@ -1343,7 +1357,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>313001</v>
       </c>
@@ -1366,7 +1380,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>322001</v>
       </c>
@@ -1389,18 +1403,18 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>333001</v>
+        <v>322002</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1412,21 +1426,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>332001</v>
+        <v>333001</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4">
         <v>45292</v>
@@ -1435,15 +1449,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>332002</v>
+        <v>332001</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>23</v>
@@ -1458,15 +1472,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>332003</v>
+        <v>332002</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>23</v>
@@ -1481,21 +1495,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>331001</v>
+        <v>332003</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
         <v>45292</v>
@@ -1504,15 +1518,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>331002</v>
+        <v>331001</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1527,15 +1541,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>331003</v>
+        <v>331002</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>23</v>
@@ -1550,624 +1564,647 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>331003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G26" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>341001</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>56</v>
       </c>
-      <c r="D26">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G26" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27">
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G27" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>341002</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="D27">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G27" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28">
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G28" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>341003</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>60</v>
       </c>
-      <c r="D28">
-        <v>24</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G28" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29">
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G29" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>341004</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>62</v>
       </c>
-      <c r="D29">
-        <v>24</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G29" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30">
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G30" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>341005</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>64</v>
       </c>
-      <c r="D30">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G30" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31">
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G31" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>341006</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="D31">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G31" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32">
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G32" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>341007</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>68</v>
       </c>
-      <c r="D32">
-        <v>24</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G32" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33">
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G33" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>341008</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>70</v>
       </c>
-      <c r="D33">
-        <v>24</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G33" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34">
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G34" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>341009</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="D34">
-        <v>24</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G34" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35">
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G35" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>341010</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>74</v>
       </c>
-      <c r="D35">
-        <v>24</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G35" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36">
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G36" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>341011</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>76</v>
       </c>
-      <c r="D36">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G36" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37">
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G37" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>341012</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>78</v>
       </c>
-      <c r="D37">
-        <v>24</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G37" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38">
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G38" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>341013</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>80</v>
       </c>
-      <c r="D38">
-        <v>24</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G38" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39">
+      <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G39" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>341014</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>82</v>
       </c>
-      <c r="D39">
-        <v>24</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G39" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40">
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G40" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>341015</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>84</v>
       </c>
-      <c r="D40">
-        <v>24</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G40" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41">
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G41" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>341016</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>86</v>
       </c>
-      <c r="D41">
-        <v>24</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G41" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42">
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G42" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>341017</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>88</v>
       </c>
-      <c r="D42">
-        <v>24</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G42" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43">
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G43" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>341018</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>90</v>
       </c>
-      <c r="D43">
-        <v>24</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G43" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44">
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G44" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>341019</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>91</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>92</v>
       </c>
-      <c r="D44">
-        <v>24</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G44" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45">
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G45" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>341020</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>94</v>
       </c>
-      <c r="D45">
-        <v>24</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G45" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46">
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G46" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>341021</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>96</v>
       </c>
-      <c r="D46">
-        <v>24</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G46" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47">
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G47" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>341022</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>98</v>
       </c>
-      <c r="D47">
-        <v>24</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G47" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48">
+      <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G48" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>341023</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>99</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>100</v>
       </c>
-      <c r="D48">
-        <v>24</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G48" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49">
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G49" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>341024</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>102</v>
       </c>
-      <c r="D49">
-        <v>24</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G49" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50">
+      <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G50" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>341025</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>103</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>104</v>
       </c>
-      <c r="D50">
-        <v>24</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G50" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51">
+      <c r="D51">
+        <v>24</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G51" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>341026</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>105</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>106</v>
       </c>
-      <c r="D51">
-        <v>24</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G51" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52">
+      <c r="D52">
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G52" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>341027</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>107</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>108</v>
       </c>
-      <c r="D52">
-        <v>24</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G53" s="4">
         <v>73050</v>
       </c>
     </row>
@@ -2180,6 +2217,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -2337,35 +2389,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2387,9 +2414,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Client/Assets/11. GameData/Item.xlsx
+++ b/Client/Assets/11. GameData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\OneDrive\바탕 화면\FGT 전 수정사항\01 뽑기 테이블 변경 및 상품 추가\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF9F913-6D36-43D3-9561-9268B4B546B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E8AC42-07CB-40D8-9810-D6EF258A97C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="1740" windowWidth="17700" windowHeight="13110" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="15675" yWindow="885" windowWidth="13530" windowHeight="13110" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_List" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +508,86 @@
   </si>
   <si>
     <t>핫핫 썬글라스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Sob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Emo_Stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과부하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힝힝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카모플라쥬 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키메라 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레디 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일중독 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레오파드 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래닌자 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋ 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구워졌냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Camouflage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Freddie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Hardworker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Leopard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Sand_Ninza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Cheezi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Chimera</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1279,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4">
         <v>45292</v>
@@ -1302,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4">
         <v>45292</v>
@@ -1325,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
         <v>45292</v>
@@ -1348,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="4">
         <v>45292</v>
@@ -1359,19 +1439,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>313001</v>
+        <v>201011</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
         <v>45292</v>
@@ -1382,19 +1462,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>322001</v>
+        <v>201012</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4">
         <v>45292</v>
@@ -1405,19 +1485,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>322002</v>
+        <v>201013</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4">
         <v>45292</v>
@@ -1428,19 +1508,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>333001</v>
+        <v>201014</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4">
         <v>45292</v>
@@ -1451,16 +1531,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>332001</v>
+        <v>201015</v>
       </c>
       <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21">
         <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1474,16 +1554,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>332002</v>
+        <v>201016</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1497,16 +1577,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>332003</v>
+        <v>201017</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1520,19 +1600,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>331001</v>
+        <v>201018</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4">
         <v>45292</v>
@@ -1543,19 +1623,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>331002</v>
+        <v>313001</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4">
         <v>45292</v>
@@ -1566,16 +1646,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>331003</v>
+        <v>322001</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1589,19 +1669,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>341001</v>
+        <v>322002</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4">
         <v>45292</v>
@@ -1612,19 +1692,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>341002</v>
+        <v>333001</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="4">
         <v>45292</v>
@@ -1635,19 +1715,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>341003</v>
+        <v>332001</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
         <v>45292</v>
@@ -1658,19 +1738,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>341004</v>
+        <v>332002</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="4">
         <v>45292</v>
@@ -1681,19 +1761,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>341005</v>
+        <v>332003</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4">
         <v>45292</v>
@@ -1704,16 +1784,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>341006</v>
+        <v>331001</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1727,16 +1807,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>341007</v>
+        <v>331002</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1750,16 +1830,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>341008</v>
+        <v>331003</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1773,13 +1853,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>341009</v>
+        <v>341001</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D35">
         <v>24</v>
@@ -1796,13 +1876,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>341010</v>
+        <v>341002</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <v>24</v>
@@ -1819,13 +1899,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>341011</v>
+        <v>341003</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D37">
         <v>24</v>
@@ -1842,13 +1922,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>341012</v>
+        <v>341004</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D38">
         <v>24</v>
@@ -1865,13 +1945,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>341013</v>
+        <v>341005</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>24</v>
@@ -1888,13 +1968,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>341014</v>
+        <v>341006</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D40">
         <v>24</v>
@@ -1911,13 +1991,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>341015</v>
+        <v>341007</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D41">
         <v>24</v>
@@ -1934,13 +2014,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>341016</v>
+        <v>341008</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D42">
         <v>24</v>
@@ -1957,13 +2037,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>341017</v>
+        <v>341009</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D43">
         <v>24</v>
@@ -1980,13 +2060,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>341018</v>
+        <v>341010</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D44">
         <v>24</v>
@@ -2003,13 +2083,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>341019</v>
+        <v>341011</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D45">
         <v>24</v>
@@ -2026,13 +2106,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>341020</v>
+        <v>341012</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D46">
         <v>24</v>
@@ -2049,13 +2129,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>341021</v>
+        <v>341013</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D47">
         <v>24</v>
@@ -2072,13 +2152,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>341022</v>
+        <v>341014</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D48">
         <v>24</v>
@@ -2095,13 +2175,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>341023</v>
+        <v>341015</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D49">
         <v>24</v>
@@ -2118,13 +2198,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>341024</v>
+        <v>341016</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -2141,13 +2221,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>341025</v>
+        <v>341017</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D51">
         <v>24</v>
@@ -2164,19 +2244,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>341026</v>
+        <v>341018</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D52">
         <v>24</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="4">
         <v>45292</v>
@@ -2187,24 +2267,254 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
+        <v>341019</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G53" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>341020</v>
+      </c>
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54">
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G54" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>341021</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G55" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>341022</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G56" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>341023</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G57" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>341024</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G58" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>341025</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G59" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>341026</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G60" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>341027</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B61" t="s">
         <v>107</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C61" t="s">
         <v>108</v>
       </c>
-      <c r="D53">
-        <v>24</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G53" s="4">
+      <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G61" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>341028</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G62" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>341029</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63">
+        <v>24</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G63" s="4">
         <v>73050</v>
       </c>
     </row>
@@ -2217,18 +2527,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2390,14 +2700,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -2409,6 +2711,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Client/Assets/11. GameData/Item.xlsx
+++ b/Client/Assets/11. GameData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\OneDrive\바탕 화면\FGT 전 수정사항\01 뽑기 테이블 변경 및 상품 추가\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E8AC42-07CB-40D8-9810-D6EF258A97C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E9CF76-797F-44DD-BCE0-9365D6CB7D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15675" yWindow="885" windowWidth="13530" windowHeight="13110" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="18615" windowHeight="16200" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_List" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,6 +588,62 @@
   </si>
   <si>
     <t>Skin_Chimera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM전용 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM전용 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Gm_Tshirt</t>
+  </si>
+  <si>
+    <t>Skin_Gm_Suit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑켄냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Frankenstein</t>
+  </si>
+  <si>
+    <t>Skin_Slime</t>
+  </si>
+  <si>
+    <t>싸울꺼냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Fighter_Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Fighter_Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덤비겠냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_School_Calico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_School_Sandy</t>
+  </si>
+  <si>
+    <t>교복 스킨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1623,16 +1679,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>313001</v>
+        <v>201019</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1646,19 +1702,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>322001</v>
+        <v>201020</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4">
         <v>45292</v>
@@ -1669,19 +1725,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>322002</v>
+        <v>201021</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4">
         <v>45292</v>
@@ -1692,19 +1748,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>333001</v>
+        <v>201022</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="4">
         <v>45292</v>
@@ -1715,19 +1771,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>332001</v>
+        <v>201023</v>
       </c>
       <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29">
-        <v>23</v>
-      </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="4">
         <v>45292</v>
@@ -1738,19 +1794,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>332002</v>
+        <v>201024</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="4">
         <v>45292</v>
@@ -1761,19 +1817,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>332003</v>
+        <v>204001</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="4">
         <v>45292</v>
@@ -1784,19 +1840,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>331001</v>
+        <v>204002</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="4">
         <v>45292</v>
@@ -1807,19 +1863,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>331002</v>
+        <v>313001</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="4">
         <v>45292</v>
@@ -1830,16 +1886,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>331003</v>
+        <v>322001</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1853,19 +1909,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>341001</v>
+        <v>322002</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="4">
         <v>45292</v>
@@ -1876,19 +1932,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>341002</v>
+        <v>333001</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="4">
         <v>45292</v>
@@ -1899,19 +1955,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>341003</v>
+        <v>332001</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="4">
         <v>45292</v>
@@ -1922,19 +1978,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>341004</v>
+        <v>332002</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="4">
         <v>45292</v>
@@ -1945,19 +2001,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>341005</v>
+        <v>332003</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="4">
         <v>45292</v>
@@ -1968,16 +2024,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>341006</v>
+        <v>331001</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1991,16 +2047,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>341007</v>
+        <v>331002</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2014,16 +2070,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>341008</v>
+        <v>331003</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2037,13 +2093,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>341009</v>
+        <v>341001</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>24</v>
@@ -2060,13 +2116,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>341010</v>
+        <v>341002</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D44">
         <v>24</v>
@@ -2083,13 +2139,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>341011</v>
+        <v>341003</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>24</v>
@@ -2106,13 +2162,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>341012</v>
+        <v>341004</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>24</v>
@@ -2129,13 +2185,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>341013</v>
+        <v>341005</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D47">
         <v>24</v>
@@ -2152,13 +2208,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>341014</v>
+        <v>341006</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D48">
         <v>24</v>
@@ -2175,13 +2231,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>341015</v>
+        <v>341007</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D49">
         <v>24</v>
@@ -2198,13 +2254,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>341016</v>
+        <v>341008</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -2221,13 +2277,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>341017</v>
+        <v>341009</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D51">
         <v>24</v>
@@ -2244,19 +2300,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>341018</v>
+        <v>341010</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D52">
         <v>24</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4">
         <v>45292</v>
@@ -2267,19 +2323,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>341019</v>
+        <v>341011</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D53">
         <v>24</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4">
         <v>45292</v>
@@ -2290,19 +2346,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>341020</v>
+        <v>341012</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D54">
         <v>24</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4">
         <v>45292</v>
@@ -2313,19 +2369,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>341021</v>
+        <v>341013</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D55">
         <v>24</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4">
         <v>45292</v>
@@ -2336,19 +2392,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>341022</v>
+        <v>341014</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D56">
         <v>24</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="4">
         <v>45292</v>
@@ -2359,19 +2415,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>341023</v>
+        <v>341015</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D57">
         <v>24</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="4">
         <v>45292</v>
@@ -2382,19 +2438,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>341024</v>
+        <v>341016</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D58">
         <v>24</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="4">
         <v>45292</v>
@@ -2405,19 +2461,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>341025</v>
+        <v>341017</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D59">
         <v>24</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="4">
         <v>45292</v>
@@ -2428,13 +2484,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>341026</v>
+        <v>341018</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D60">
         <v>24</v>
@@ -2451,13 +2507,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>341027</v>
+        <v>341019</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D61">
         <v>24</v>
@@ -2474,13 +2530,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>341028</v>
+        <v>341020</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D62">
         <v>24</v>
@@ -2497,13 +2553,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>341029</v>
+        <v>341021</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D63">
         <v>24</v>
@@ -2515,6 +2571,190 @@
         <v>45292</v>
       </c>
       <c r="G63" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>341022</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64">
+        <v>24</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G64" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>341023</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G65" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>341024</v>
+      </c>
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66">
+        <v>24</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G66" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>341025</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67">
+        <v>24</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G67" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>341026</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68">
+        <v>24</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G68" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>341027</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69">
+        <v>24</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G69" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>341028</v>
+      </c>
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70">
+        <v>24</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G70" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>341029</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71">
+        <v>24</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G71" s="4">
         <v>73050</v>
       </c>
     </row>
@@ -2527,18 +2767,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2700,6 +2940,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -2711,14 +2959,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Client/Assets/11. GameData/Item.xlsx
+++ b/Client/Assets/11. GameData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E9CF76-797F-44DD-BCE0-9365D6CB7D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8BD581-9E94-4319-8D8C-0240FB3C3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="18615" windowHeight="16200" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_List" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,9 @@
 댓글:
     Normal = 1
 Rare = 2
-Unique = 3</t>
+Unique = 3
+답글:
+    재화 = 4</t>
       </text>
     </comment>
   </commentList>
@@ -89,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,6 +646,14 @@
   </si>
   <si>
     <t>교복 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money_Won</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,29 +1105,32 @@
 Rare = 2
 Unique = 3</text>
   </threadedComment>
+  <threadedComment ref="E1" dT="2025-02-05T08:43:44.61" personId="{84A5A70C-4692-4676-8A0A-E197E818F58B}" id="{9A95B4A6-9773-4230-82EC-EAB8BB47D515}" parentId="{4ED52798-B22D-43C9-8621-6A17DCBD5E06}">
+    <text>재화 = 4</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C32"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -1154,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4">
         <v>45292</v>
@@ -1163,7 +1176,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -1177,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4">
         <v>45292</v>
@@ -1188,7 +1201,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>100003</v>
       </c>
@@ -1202,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4">
         <v>45292</v>
@@ -1213,7 +1226,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>100004</v>
       </c>
@@ -1238,7 +1251,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>100005</v>
       </c>
@@ -1263,38 +1276,40 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
+        <v>100006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G7" s="4">
+        <v>73050</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>201001</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>28</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G7" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>201002</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -1309,15 +1324,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>201003</v>
+        <v>201002</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1332,15 +1347,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>201004</v>
+        <v>201003</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1355,15 +1370,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>201005</v>
+        <v>201004</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1378,15 +1393,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>201006</v>
+        <v>201005</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1401,21 +1416,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>201007</v>
+        <v>201006</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
         <v>45292</v>
@@ -1424,15 +1439,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>201008</v>
+        <v>201007</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1447,15 +1462,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>201009</v>
+        <v>201008</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1470,15 +1485,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>201010</v>
+        <v>201009</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1493,15 +1508,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>201011</v>
+        <v>201010</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1516,15 +1531,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>201012</v>
+        <v>201011</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1539,15 +1554,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>201013</v>
+        <v>201012</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -1562,15 +1577,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>201014</v>
+        <v>201013</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1585,15 +1600,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>201015</v>
+        <v>201014</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -1608,15 +1623,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>201016</v>
+        <v>201015</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1631,15 +1646,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>201017</v>
+        <v>201016</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1654,15 +1669,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>201018</v>
+        <v>201017</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -1677,21 +1692,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>201019</v>
+        <v>201018</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D25">
         <v>10</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
         <v>45292</v>
@@ -1700,15 +1715,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>201020</v>
+        <v>201019</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -1723,21 +1738,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>201021</v>
+        <v>201020</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4">
         <v>45292</v>
@@ -1746,15 +1761,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>201022</v>
+        <v>201021</v>
       </c>
       <c r="B28" t="s">
         <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -1769,21 +1784,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>201023</v>
+        <v>201022</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
         <v>45292</v>
@@ -1792,15 +1807,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>201024</v>
+        <v>201023</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -1815,15 +1830,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>204001</v>
+        <v>201024</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -1838,15 +1853,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>204002</v>
+        <v>204001</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -1861,18 +1876,18 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>313001</v>
+        <v>204002</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1884,44 +1899,44 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
+        <v>313001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G34" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>322001</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>18</v>
-      </c>
-      <c r="D34">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G34" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>322002</v>
-      </c>
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>109</v>
       </c>
       <c r="D35">
         <v>22</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" s="4">
         <v>45292</v>
@@ -1930,18 +1945,18 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>333001</v>
+        <v>322002</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1953,21 +1968,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>332001</v>
+        <v>333001</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>23</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4">
         <v>45292</v>
@@ -1976,15 +1991,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>332002</v>
+        <v>332001</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38">
         <v>23</v>
@@ -1999,15 +2014,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>332003</v>
+        <v>332002</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>23</v>
@@ -2022,21 +2037,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>331001</v>
+        <v>332003</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40">
         <v>23</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="4">
         <v>45292</v>
@@ -2045,15 +2060,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>331002</v>
+        <v>331001</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41">
         <v>23</v>
@@ -2068,15 +2083,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>331003</v>
+        <v>331002</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42">
         <v>23</v>
@@ -2091,38 +2106,38 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
+        <v>331003</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G43" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44">
         <v>341001</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>55</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>56</v>
-      </c>
-      <c r="D43">
-        <v>24</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G43" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>341002</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>58</v>
       </c>
       <c r="D44">
         <v>24</v>
@@ -2137,15 +2152,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>341003</v>
+        <v>341002</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <v>24</v>
@@ -2160,15 +2175,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>341004</v>
+        <v>341003</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>24</v>
@@ -2183,15 +2198,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>341005</v>
+        <v>341004</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <v>24</v>
@@ -2206,15 +2221,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>341006</v>
+        <v>341005</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D48">
         <v>24</v>
@@ -2229,15 +2244,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>341007</v>
+        <v>341006</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D49">
         <v>24</v>
@@ -2252,15 +2267,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>341008</v>
+        <v>341007</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -2275,15 +2290,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>341009</v>
+        <v>341008</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D51">
         <v>24</v>
@@ -2298,15 +2313,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>341010</v>
+        <v>341009</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D52">
         <v>24</v>
@@ -2321,15 +2336,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>341011</v>
+        <v>341010</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53">
         <v>24</v>
@@ -2344,15 +2359,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>341012</v>
+        <v>341011</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D54">
         <v>24</v>
@@ -2367,15 +2382,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>341013</v>
+        <v>341012</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D55">
         <v>24</v>
@@ -2390,15 +2405,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>341014</v>
+        <v>341013</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56">
         <v>24</v>
@@ -2413,15 +2428,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>341015</v>
+        <v>341014</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D57">
         <v>24</v>
@@ -2436,15 +2451,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>341016</v>
+        <v>341015</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D58">
         <v>24</v>
@@ -2459,15 +2474,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>341017</v>
+        <v>341016</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D59">
         <v>24</v>
@@ -2482,21 +2497,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>341018</v>
+        <v>341017</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D60">
         <v>24</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="4">
         <v>45292</v>
@@ -2505,15 +2520,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>341019</v>
+        <v>341018</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61">
         <v>24</v>
@@ -2528,15 +2543,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>341020</v>
+        <v>341019</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D62">
         <v>24</v>
@@ -2551,15 +2566,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>341021</v>
+        <v>341020</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D63">
         <v>24</v>
@@ -2574,15 +2589,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>341022</v>
+        <v>341021</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D64">
         <v>24</v>
@@ -2597,15 +2612,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>341023</v>
+        <v>341022</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D65">
         <v>24</v>
@@ -2620,15 +2635,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>341024</v>
+        <v>341023</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D66">
         <v>24</v>
@@ -2643,15 +2658,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>341025</v>
+        <v>341024</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D67">
         <v>24</v>
@@ -2666,15 +2681,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>341026</v>
+        <v>341025</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D68">
         <v>24</v>
@@ -2689,15 +2704,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>341027</v>
+        <v>341026</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D69">
         <v>24</v>
@@ -2712,15 +2727,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>341028</v>
+        <v>341027</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D70">
         <v>24</v>
@@ -2735,15 +2750,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>341029</v>
+        <v>341028</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71">
         <v>24</v>
@@ -2755,6 +2770,29 @@
         <v>45292</v>
       </c>
       <c r="G71" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>341029</v>
+      </c>
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G72" s="4">
         <v>73050</v>
       </c>
     </row>
@@ -2767,18 +2805,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2940,14 +2978,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -2959,6 +2989,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Client/Assets/11. GameData/Item.xlsx
+++ b/Client/Assets/11. GameData/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Desktop\CBT 밸런싱\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8BD581-9E94-4319-8D8C-0240FB3C3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E456FD-5083-4780-9319-10BB25ECA6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="10512" yWindow="492" windowWidth="11484" windowHeight="11460" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_List" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마멀레이드색 스킨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>브라운색 스킨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,15 +641,23 @@
     <t>Skin_School_Sandy</t>
   </si>
   <si>
-    <t>교복 스킨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Money_Won</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마멀레이드 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교복 스킨1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교복 스킨2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1135,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
@@ -1206,10 +1210,10 @@
         <v>100003</v>
       </c>
       <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1231,10 +1235,10 @@
         <v>100004</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1256,10 +1260,10 @@
         <v>100005</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1281,10 +1285,10 @@
         <v>100006</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1332,7 +1336,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1352,10 +1356,10 @@
         <v>201003</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1375,10 +1379,10 @@
         <v>201004</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1398,10 +1402,10 @@
         <v>201005</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1421,10 +1425,10 @@
         <v>201006</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1444,10 +1448,10 @@
         <v>201007</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1467,10 +1471,10 @@
         <v>201008</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1490,10 +1494,10 @@
         <v>201009</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1513,10 +1517,10 @@
         <v>201010</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1536,10 +1540,10 @@
         <v>201011</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1559,10 +1563,10 @@
         <v>201012</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -1582,10 +1586,10 @@
         <v>201013</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1605,10 +1609,10 @@
         <v>201014</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -1628,10 +1632,10 @@
         <v>201015</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1651,10 +1655,10 @@
         <v>201016</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1674,10 +1678,10 @@
         <v>201017</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -1697,10 +1701,10 @@
         <v>201018</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -1720,10 +1724,10 @@
         <v>201019</v>
       </c>
       <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
         <v>139</v>
-      </c>
-      <c r="C26" t="s">
-        <v>140</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -1743,10 +1747,10 @@
         <v>201020</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -1766,10 +1770,10 @@
         <v>201021</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -1789,10 +1793,10 @@
         <v>201022</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -1812,10 +1816,10 @@
         <v>201023</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -1835,10 +1839,10 @@
         <v>201024</v>
       </c>
       <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
         <v>136</v>
-      </c>
-      <c r="C31" t="s">
-        <v>137</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -1858,10 +1862,10 @@
         <v>204001</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -1881,10 +1885,10 @@
         <v>204002</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -1950,10 +1954,10 @@
         <v>322002</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36">
         <v>22</v>
@@ -2134,10 +2138,10 @@
         <v>341001</v>
       </c>
       <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
         <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>56</v>
       </c>
       <c r="D44">
         <v>24</v>
@@ -2157,10 +2161,10 @@
         <v>341002</v>
       </c>
       <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
         <v>57</v>
-      </c>
-      <c r="C45" t="s">
-        <v>58</v>
       </c>
       <c r="D45">
         <v>24</v>
@@ -2180,10 +2184,10 @@
         <v>341003</v>
       </c>
       <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
         <v>59</v>
-      </c>
-      <c r="C46" t="s">
-        <v>60</v>
       </c>
       <c r="D46">
         <v>24</v>
@@ -2203,10 +2207,10 @@
         <v>341004</v>
       </c>
       <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
         <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
       </c>
       <c r="D47">
         <v>24</v>
@@ -2226,10 +2230,10 @@
         <v>341005</v>
       </c>
       <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
         <v>63</v>
-      </c>
-      <c r="C48" t="s">
-        <v>64</v>
       </c>
       <c r="D48">
         <v>24</v>
@@ -2249,10 +2253,10 @@
         <v>341006</v>
       </c>
       <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
         <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>66</v>
       </c>
       <c r="D49">
         <v>24</v>
@@ -2272,10 +2276,10 @@
         <v>341007</v>
       </c>
       <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
         <v>67</v>
-      </c>
-      <c r="C50" t="s">
-        <v>68</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -2295,10 +2299,10 @@
         <v>341008</v>
       </c>
       <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
         <v>69</v>
-      </c>
-      <c r="C51" t="s">
-        <v>70</v>
       </c>
       <c r="D51">
         <v>24</v>
@@ -2318,10 +2322,10 @@
         <v>341009</v>
       </c>
       <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
         <v>71</v>
-      </c>
-      <c r="C52" t="s">
-        <v>72</v>
       </c>
       <c r="D52">
         <v>24</v>
@@ -2341,10 +2345,10 @@
         <v>341010</v>
       </c>
       <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
         <v>73</v>
-      </c>
-      <c r="C53" t="s">
-        <v>74</v>
       </c>
       <c r="D53">
         <v>24</v>
@@ -2364,10 +2368,10 @@
         <v>341011</v>
       </c>
       <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
         <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>76</v>
       </c>
       <c r="D54">
         <v>24</v>
@@ -2387,10 +2391,10 @@
         <v>341012</v>
       </c>
       <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
         <v>77</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
       </c>
       <c r="D55">
         <v>24</v>
@@ -2410,10 +2414,10 @@
         <v>341013</v>
       </c>
       <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
         <v>79</v>
-      </c>
-      <c r="C56" t="s">
-        <v>80</v>
       </c>
       <c r="D56">
         <v>24</v>
@@ -2433,10 +2437,10 @@
         <v>341014</v>
       </c>
       <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
         <v>81</v>
-      </c>
-      <c r="C57" t="s">
-        <v>82</v>
       </c>
       <c r="D57">
         <v>24</v>
@@ -2456,10 +2460,10 @@
         <v>341015</v>
       </c>
       <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
         <v>83</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
       </c>
       <c r="D58">
         <v>24</v>
@@ -2479,10 +2483,10 @@
         <v>341016</v>
       </c>
       <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
         <v>85</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
       </c>
       <c r="D59">
         <v>24</v>
@@ -2502,10 +2506,10 @@
         <v>341017</v>
       </c>
       <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
         <v>87</v>
-      </c>
-      <c r="C60" t="s">
-        <v>88</v>
       </c>
       <c r="D60">
         <v>24</v>
@@ -2525,10 +2529,10 @@
         <v>341018</v>
       </c>
       <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
         <v>89</v>
-      </c>
-      <c r="C61" t="s">
-        <v>90</v>
       </c>
       <c r="D61">
         <v>24</v>
@@ -2548,10 +2552,10 @@
         <v>341019</v>
       </c>
       <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
         <v>91</v>
-      </c>
-      <c r="C62" t="s">
-        <v>92</v>
       </c>
       <c r="D62">
         <v>24</v>
@@ -2571,10 +2575,10 @@
         <v>341020</v>
       </c>
       <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
         <v>93</v>
-      </c>
-      <c r="C63" t="s">
-        <v>94</v>
       </c>
       <c r="D63">
         <v>24</v>
@@ -2594,10 +2598,10 @@
         <v>341021</v>
       </c>
       <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
         <v>95</v>
-      </c>
-      <c r="C64" t="s">
-        <v>96</v>
       </c>
       <c r="D64">
         <v>24</v>
@@ -2617,10 +2621,10 @@
         <v>341022</v>
       </c>
       <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
         <v>97</v>
-      </c>
-      <c r="C65" t="s">
-        <v>98</v>
       </c>
       <c r="D65">
         <v>24</v>
@@ -2640,10 +2644,10 @@
         <v>341023</v>
       </c>
       <c r="B66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" t="s">
         <v>99</v>
-      </c>
-      <c r="C66" t="s">
-        <v>100</v>
       </c>
       <c r="D66">
         <v>24</v>
@@ -2663,10 +2667,10 @@
         <v>341024</v>
       </c>
       <c r="B67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s">
         <v>101</v>
-      </c>
-      <c r="C67" t="s">
-        <v>102</v>
       </c>
       <c r="D67">
         <v>24</v>
@@ -2686,10 +2690,10 @@
         <v>341025</v>
       </c>
       <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" t="s">
         <v>103</v>
-      </c>
-      <c r="C68" t="s">
-        <v>104</v>
       </c>
       <c r="D68">
         <v>24</v>
@@ -2709,10 +2713,10 @@
         <v>341026</v>
       </c>
       <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" t="s">
         <v>105</v>
-      </c>
-      <c r="C69" t="s">
-        <v>106</v>
       </c>
       <c r="D69">
         <v>24</v>
@@ -2732,10 +2736,10 @@
         <v>341027</v>
       </c>
       <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
         <v>107</v>
-      </c>
-      <c r="C70" t="s">
-        <v>108</v>
       </c>
       <c r="D70">
         <v>24</v>
@@ -2755,10 +2759,10 @@
         <v>341028</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71">
         <v>24</v>
@@ -2778,10 +2782,10 @@
         <v>341029</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D72">
         <v>24</v>
@@ -2805,21 +2809,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -2977,31 +2966,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3017,4 +2997,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Client/Assets/11. GameData/Item.xlsx
+++ b/Client/Assets/11. GameData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Desktop\CBT 밸런싱\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JMTJ\new\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E456FD-5083-4780-9319-10BB25ECA6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D468F6E-04B9-444F-A062-D06DD2E3F51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10512" yWindow="492" windowWidth="11484" windowHeight="11460" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_List" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,13 @@
   <si>
     <t>교복 스킨2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이터냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Fighter_Yellow</t>
   </si>
 </sst>
 </file>
@@ -1117,24 +1124,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -1205,7 +1212,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100003</v>
       </c>
@@ -1230,7 +1237,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100004</v>
       </c>
@@ -1255,7 +1262,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100005</v>
       </c>
@@ -1280,7 +1287,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100006</v>
       </c>
@@ -1305,7 +1312,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>201001</v>
       </c>
@@ -1328,7 +1335,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>201002</v>
       </c>
@@ -1351,7 +1358,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>201003</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>201004</v>
       </c>
@@ -1397,7 +1404,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>201005</v>
       </c>
@@ -1420,7 +1427,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>201006</v>
       </c>
@@ -1443,7 +1450,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>201007</v>
       </c>
@@ -1466,7 +1473,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>201008</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>201009</v>
       </c>
@@ -1512,7 +1519,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>201010</v>
       </c>
@@ -1535,7 +1542,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>201011</v>
       </c>
@@ -1558,7 +1565,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>201012</v>
       </c>
@@ -1581,7 +1588,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>201013</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>201014</v>
       </c>
@@ -1627,7 +1634,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>201015</v>
       </c>
@@ -1650,7 +1657,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>201016</v>
       </c>
@@ -1673,7 +1680,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>201017</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>201018</v>
       </c>
@@ -1719,7 +1726,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>201019</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>201020</v>
       </c>
@@ -1765,7 +1772,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>201021</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>201022</v>
       </c>
@@ -1811,7 +1818,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>201023</v>
       </c>
@@ -1834,7 +1841,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>201024</v>
       </c>
@@ -1857,15 +1864,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>204001</v>
+        <v>201025</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -1880,15 +1887,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>204002</v>
+        <v>204001</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -1903,18 +1910,18 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>313001</v>
+        <v>204002</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1926,44 +1933,44 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
+        <v>313001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G35" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>322001</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>18</v>
-      </c>
-      <c r="D35">
-        <v>22</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G35" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>322002</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>108</v>
       </c>
       <c r="D36">
         <v>22</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4">
         <v>45292</v>
@@ -1972,18 +1979,18 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>333001</v>
+        <v>322002</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -1995,21 +2002,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>332001</v>
+        <v>333001</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>23</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="4">
         <v>45292</v>
@@ -2018,15 +2025,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>332002</v>
+        <v>332001</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39">
         <v>23</v>
@@ -2041,15 +2048,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>332003</v>
+        <v>332002</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40">
         <v>23</v>
@@ -2064,21 +2071,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>331001</v>
+        <v>332003</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <v>23</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="4">
         <v>45292</v>
@@ -2087,15 +2094,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>331002</v>
+        <v>331001</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42">
         <v>23</v>
@@ -2110,15 +2117,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>331003</v>
+        <v>331002</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43">
         <v>23</v>
@@ -2133,38 +2140,38 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
+        <v>331003</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>23</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G44" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>341001</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>55</v>
-      </c>
-      <c r="D44">
-        <v>24</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4">
-        <v>45292</v>
-      </c>
-      <c r="G44" s="4">
-        <v>73050</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>341002</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
       </c>
       <c r="D45">
         <v>24</v>
@@ -2179,15 +2186,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>341003</v>
+        <v>341002</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D46">
         <v>24</v>
@@ -2202,15 +2209,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>341004</v>
+        <v>341003</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>24</v>
@@ -2225,15 +2232,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>341005</v>
+        <v>341004</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>24</v>
@@ -2248,15 +2255,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>341006</v>
+        <v>341005</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D49">
         <v>24</v>
@@ -2271,15 +2278,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>341007</v>
+        <v>341006</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -2294,15 +2301,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>341008</v>
+        <v>341007</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D51">
         <v>24</v>
@@ -2317,15 +2324,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>341009</v>
+        <v>341008</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D52">
         <v>24</v>
@@ -2340,15 +2347,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>341010</v>
+        <v>341009</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D53">
         <v>24</v>
@@ -2363,15 +2370,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>341011</v>
+        <v>341010</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D54">
         <v>24</v>
@@ -2386,15 +2393,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>341012</v>
+        <v>341011</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D55">
         <v>24</v>
@@ -2409,15 +2416,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>341013</v>
+        <v>341012</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56">
         <v>24</v>
@@ -2432,15 +2439,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>341014</v>
+        <v>341013</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D57">
         <v>24</v>
@@ -2455,15 +2462,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>341015</v>
+        <v>341014</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D58">
         <v>24</v>
@@ -2478,15 +2485,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>341016</v>
+        <v>341015</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59">
         <v>24</v>
@@ -2501,15 +2508,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>341017</v>
+        <v>341016</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D60">
         <v>24</v>
@@ -2524,21 +2531,21 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>341018</v>
+        <v>341017</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D61">
         <v>24</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="4">
         <v>45292</v>
@@ -2547,15 +2554,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>341019</v>
+        <v>341018</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D62">
         <v>24</v>
@@ -2570,15 +2577,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>341020</v>
+        <v>341019</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D63">
         <v>24</v>
@@ -2593,15 +2600,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>341021</v>
+        <v>341020</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D64">
         <v>24</v>
@@ -2616,15 +2623,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>341022</v>
+        <v>341021</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D65">
         <v>24</v>
@@ -2639,15 +2646,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>341023</v>
+        <v>341022</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D66">
         <v>24</v>
@@ -2662,15 +2669,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>341024</v>
+        <v>341023</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D67">
         <v>24</v>
@@ -2685,15 +2692,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>341025</v>
+        <v>341024</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D68">
         <v>24</v>
@@ -2708,15 +2715,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>341026</v>
+        <v>341025</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D69">
         <v>24</v>
@@ -2731,15 +2738,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>341027</v>
+        <v>341026</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D70">
         <v>24</v>
@@ -2754,15 +2761,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>341028</v>
+        <v>341027</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D71">
         <v>24</v>
@@ -2777,15 +2784,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>341029</v>
+        <v>341028</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D72">
         <v>24</v>
@@ -2797,6 +2804,29 @@
         <v>45292</v>
       </c>
       <c r="G72" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>341029</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G73" s="4">
         <v>73050</v>
       </c>
     </row>
@@ -2809,6 +2839,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -2966,15 +3005,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2982,6 +3012,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2995,14 +3033,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Client/Assets/11. GameData/Item.xlsx
+++ b/Client/Assets/11. GameData/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Desktop\CBT 밸런싱\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E456FD-5083-4780-9319-10BB25ECA6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD79F8-27C9-4328-85A1-7E2DC2AC5333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10512" yWindow="492" windowWidth="11484" windowHeight="11460" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_List" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,6 +658,14 @@
   </si>
   <si>
     <t>교복 스킨2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이터냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin_Fighter_Yellow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1859,13 +1867,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>204001</v>
+        <v>201025</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -1882,13 +1890,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>204002</v>
+        <v>204001</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -1905,16 +1913,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>313001</v>
+        <v>204002</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1928,19 +1936,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>322001</v>
+        <v>313001</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="4">
         <v>45292</v>
@@ -1951,19 +1959,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>322002</v>
+        <v>322001</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>22</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4">
         <v>45292</v>
@@ -1974,16 +1982,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>333001</v>
+        <v>322002</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -1997,19 +2005,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>332001</v>
+        <v>333001</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>23</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="4">
         <v>45292</v>
@@ -2020,13 +2028,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>332002</v>
+        <v>332001</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39">
         <v>23</v>
@@ -2043,13 +2051,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>332003</v>
+        <v>332002</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40">
         <v>23</v>
@@ -2066,19 +2074,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>331001</v>
+        <v>332003</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <v>23</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="4">
         <v>45292</v>
@@ -2089,13 +2097,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>331002</v>
+        <v>331001</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42">
         <v>23</v>
@@ -2112,13 +2120,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>331003</v>
+        <v>331002</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43">
         <v>23</v>
@@ -2135,16 +2143,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>341001</v>
+        <v>331003</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2158,13 +2166,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>341002</v>
+        <v>341001</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45">
         <v>24</v>
@@ -2181,13 +2189,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>341003</v>
+        <v>341002</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D46">
         <v>24</v>
@@ -2204,13 +2212,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>341004</v>
+        <v>341003</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>24</v>
@@ -2227,13 +2235,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>341005</v>
+        <v>341004</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>24</v>
@@ -2250,13 +2258,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>341006</v>
+        <v>341005</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D49">
         <v>24</v>
@@ -2273,13 +2281,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>341007</v>
+        <v>341006</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -2296,13 +2304,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>341008</v>
+        <v>341007</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D51">
         <v>24</v>
@@ -2319,13 +2327,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>341009</v>
+        <v>341008</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D52">
         <v>24</v>
@@ -2342,13 +2350,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>341010</v>
+        <v>341009</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D53">
         <v>24</v>
@@ -2365,13 +2373,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>341011</v>
+        <v>341010</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D54">
         <v>24</v>
@@ -2388,13 +2396,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>341012</v>
+        <v>341011</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D55">
         <v>24</v>
@@ -2411,13 +2419,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>341013</v>
+        <v>341012</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56">
         <v>24</v>
@@ -2434,13 +2442,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>341014</v>
+        <v>341013</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D57">
         <v>24</v>
@@ -2457,13 +2465,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>341015</v>
+        <v>341014</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D58">
         <v>24</v>
@@ -2480,13 +2488,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>341016</v>
+        <v>341015</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59">
         <v>24</v>
@@ -2503,13 +2511,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>341017</v>
+        <v>341016</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D60">
         <v>24</v>
@@ -2526,19 +2534,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>341018</v>
+        <v>341017</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D61">
         <v>24</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="4">
         <v>45292</v>
@@ -2549,13 +2557,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>341019</v>
+        <v>341018</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D62">
         <v>24</v>
@@ -2572,13 +2580,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>341020</v>
+        <v>341019</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D63">
         <v>24</v>
@@ -2595,13 +2603,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>341021</v>
+        <v>341020</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D64">
         <v>24</v>
@@ -2618,13 +2626,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>341022</v>
+        <v>341021</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D65">
         <v>24</v>
@@ -2641,13 +2649,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>341023</v>
+        <v>341022</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D66">
         <v>24</v>
@@ -2664,13 +2672,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>341024</v>
+        <v>341023</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D67">
         <v>24</v>
@@ -2687,13 +2695,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>341025</v>
+        <v>341024</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D68">
         <v>24</v>
@@ -2710,13 +2718,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>341026</v>
+        <v>341025</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D69">
         <v>24</v>
@@ -2733,13 +2741,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>341027</v>
+        <v>341026</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D70">
         <v>24</v>
@@ -2756,13 +2764,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>341028</v>
+        <v>341027</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D71">
         <v>24</v>
@@ -2779,13 +2787,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>341029</v>
+        <v>341028</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D72">
         <v>24</v>
@@ -2797,6 +2805,29 @@
         <v>45292</v>
       </c>
       <c r="G72" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>341029</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G73" s="4">
         <v>73050</v>
       </c>
     </row>
@@ -2809,6 +2840,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -2966,22 +3012,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2997,28 +3052,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>